--- a/data/trans_bre/P32C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,76%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,59; 3,41</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; -0,96</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; -0,2</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 0,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 269,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 98,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 46,33</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,41%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 0,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; -0,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 0,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,09; 44,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -12,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,63; 61,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,31; 520,61</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,63%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 0,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; -0,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 0,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 0,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 459,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,78%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 0,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; -1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; -0,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,91; 16,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,27; -55,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,78; -16,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,95; 114,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-67,76%</t>
+          <t>-65,97%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,2</t>
+          <t>-5,26; 0,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 46,33</t>
+          <t>-100,0; 50,02</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>61,14%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,3</t>
+          <t>-0,67; 1,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 520,61</t>
+          <t>-66,38; 407,74</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-76,63%</t>
+          <t>-76,12%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,15</t>
+          <t>-1,96; 0,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,78%</t>
+          <t>-24,37%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,99</t>
+          <t>-1,13; 0,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,95; 114,98</t>
+          <t>-73,47; 91,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Estudios-trans_bre.xlsx
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,41</t>
+          <t>-2,7; 3,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,96</t>
+          <t>-3,43; -0,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -0,2</t>
+          <t>-5,38; -0,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,42</t>
+          <t>-5,35; 0,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 269,56</t>
+          <t>-100,0; 356,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 98,24</t>
+          <t>-100,0; 70,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 50,02</t>
+          <t>-100,0; 77,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,28</t>
+          <t>-1,92; 0,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,5</t>
+          <t>-2,32; -0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,27</t>
+          <t>-1,55; 0,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,87</t>
+          <t>-0,76; 1,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,09; 44,48</t>
+          <t>-90,61; 33,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -12,85</t>
+          <t>-92,84; -18,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-86,63; 61,11</t>
+          <t>-89,86; 41,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 407,74</t>
+          <t>-74,0; 389,47</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,42</t>
+          <t>-3,11; 0,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; -0,75</t>
+          <t>-5,24; -0,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,37</t>
+          <t>-2,05; 0,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,15</t>
+          <t>-1,9; 0,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 459,95</t>
+          <t>-100,0; 447,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,09</t>
+          <t>-1,84; 0,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -1,03</t>
+          <t>-2,39; -0,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; -0,38</t>
+          <t>-1,85; -0,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,76</t>
+          <t>-1,06; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,91; 16,45</t>
+          <t>-81,15; 8,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-97,27; -55,82</t>
+          <t>-96,12; -49,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-88,78; -16,5</t>
+          <t>-87,52; -21,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,47; 91,4</t>
+          <t>-71,31; 90,7</t>
         </is>
       </c>
     </row>
